--- a/data/trans_orig/P19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>157655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137433</v>
+        <v>135732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>179257</v>
+        <v>181265</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2271650117506897</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1980268836187306</v>
+        <v>0.195576139976799</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2582915480123629</v>
+        <v>0.2611838400813066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>218</v>
@@ -765,19 +765,19 @@
         <v>213595</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>193496</v>
+        <v>189316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>237135</v>
+        <v>236182</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3107170631925775</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2814784147730756</v>
+        <v>0.2753978598348977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3449609676400389</v>
+        <v>0.3435750938261291</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>376</v>
@@ -786,19 +786,19 @@
         <v>371250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>337426</v>
+        <v>342705</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>403782</v>
+        <v>404439</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2687418712540779</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2442569027743642</v>
+        <v>0.2480782072528118</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2922913295687435</v>
+        <v>0.292766949342709</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>536357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>514755</v>
+        <v>512747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>556579</v>
+        <v>558280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7728349882493103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7417084519876371</v>
+        <v>0.7388161599186932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8019731163812693</v>
+        <v>0.8044238600232009</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>477</v>
@@ -836,19 +836,19 @@
         <v>473831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>450291</v>
+        <v>451244</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>493930</v>
+        <v>498110</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6892829368074225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6550390323599611</v>
+        <v>0.6564249061738708</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7185215852269241</v>
+        <v>0.7246021401651022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1002</v>
@@ -857,19 +857,19 @@
         <v>1010188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>977656</v>
+        <v>976999</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1044012</v>
+        <v>1038733</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7312581287459221</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7077086704312563</v>
+        <v>0.7072330506572909</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7557430972256358</v>
+        <v>0.7519217927471882</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>239087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214276</v>
+        <v>207747</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>266212</v>
+        <v>265627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2485828389283046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2227860279468811</v>
+        <v>0.2159978725849112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2767850188742639</v>
+        <v>0.2761774136472017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>288</v>
@@ -982,19 +982,19 @@
         <v>304293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>276051</v>
+        <v>275379</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>335152</v>
+        <v>335159</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3142245077279854</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2850604648185294</v>
+        <v>0.2843665794017109</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3460910851550015</v>
+        <v>0.3460979589499994</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>513</v>
@@ -1003,19 +1003,19 @@
         <v>543380</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>506240</v>
+        <v>499499</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>585523</v>
+        <v>582422</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2815157810238435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2622742198295026</v>
+        <v>0.2587820400220289</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3033496477293238</v>
+        <v>0.3017426303995858</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>722713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>695588</v>
+        <v>696173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>747524</v>
+        <v>754053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7514171610716954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7232149811257357</v>
+        <v>0.7238225863527984</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7772139720531186</v>
+        <v>0.7840021274150893</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>620</v>
@@ -1053,19 +1053,19 @@
         <v>664100</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>633241</v>
+        <v>633234</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>692342</v>
+        <v>693014</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6857754922720146</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6539089148449986</v>
+        <v>0.6539020410500006</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7149395351814707</v>
+        <v>0.7156334205982894</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1291</v>
@@ -1074,19 +1074,19 @@
         <v>1386813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1344670</v>
+        <v>1347771</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1423953</v>
+        <v>1430694</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7184842189761566</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6966503522706761</v>
+        <v>0.6982573696004142</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7377257801704972</v>
+        <v>0.7412179599779712</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>186137</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163812</v>
+        <v>163432</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>212800</v>
+        <v>213536</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2743321494712029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2414290480548551</v>
+        <v>0.2408686324191171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3136289122459754</v>
+        <v>0.3147140724697487</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -1199,19 +1199,19 @@
         <v>222351</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>199125</v>
+        <v>199633</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249197</v>
+        <v>249437</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3251505023855111</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.29118611434542</v>
+        <v>0.2919291775065078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.364407905092937</v>
+        <v>0.3647581880315399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>397</v>
@@ -1220,19 +1220,19 @@
         <v>408488</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>376255</v>
+        <v>373983</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>442486</v>
+        <v>441290</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2998407752717902</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2761805517942156</v>
+        <v>0.274512981544335</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3247959877963545</v>
+        <v>0.3239179026677282</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>492372</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>465709</v>
+        <v>464973</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>514697</v>
+        <v>515077</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7256678505287971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6863710877540244</v>
+        <v>0.6852859275302513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7585709519451449</v>
+        <v>0.7591313675808828</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>471</v>
@@ -1270,19 +1270,19 @@
         <v>461490</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>434644</v>
+        <v>434404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>484716</v>
+        <v>484208</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6748494976144889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.635592094907063</v>
+        <v>0.6352418119684602</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.70881388565458</v>
+        <v>0.7080708224934922</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>940</v>
@@ -1291,19 +1291,19 @@
         <v>953862</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>919864</v>
+        <v>921060</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>986095</v>
+        <v>988367</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7001592247282098</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6752040122036451</v>
+        <v>0.6760820973322718</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7238194482057844</v>
+        <v>0.725487018455665</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>232039</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>207188</v>
+        <v>206743</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261028</v>
+        <v>259315</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2465066049775288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2201062142498497</v>
+        <v>0.2196332886701837</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2773027683454496</v>
+        <v>0.2754832274088832</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>305</v>
@@ -1416,19 +1416,19 @@
         <v>318757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>291189</v>
+        <v>290826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350400</v>
+        <v>347408</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3069065570028403</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2803636698599689</v>
+        <v>0.2800138966022677</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3373732960131799</v>
+        <v>0.3344921042717475</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>553</v>
@@ -1437,19 +1437,19 @@
         <v>550796</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>511451</v>
+        <v>515218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>590447</v>
+        <v>593395</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.278190738975299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2583186296090954</v>
+        <v>0.2602215760747844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2982174502812859</v>
+        <v>0.2997064564789793</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>709271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>680282</v>
+        <v>681995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>734122</v>
+        <v>734567</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7534933950224711</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7226972316545505</v>
+        <v>0.7245167725911168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7798937857501503</v>
+        <v>0.7803667113298163</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>692</v>
@@ -1487,19 +1487,19 @@
         <v>719855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>688212</v>
+        <v>691204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>747423</v>
+        <v>747786</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6930934429971597</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6626267039868199</v>
+        <v>0.6655078957282525</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.719636330140031</v>
+        <v>0.7199861033977323</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1437</v>
@@ -1508,19 +1508,19 @@
         <v>1429126</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1389475</v>
+        <v>1386527</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1468471</v>
+        <v>1464704</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.721809261024701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7017825497187142</v>
+        <v>0.7002935435210208</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7416813703909048</v>
+        <v>0.7397784239252156</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>814918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>766567</v>
+        <v>764354</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>867162</v>
+        <v>865273</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2487820454285269</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2340211353326815</v>
+        <v>0.2333457006454011</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2647311914305926</v>
+        <v>0.2641544528363499</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1036</v>
@@ -1633,19 +1633,19 @@
         <v>1058996</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1006934</v>
+        <v>1000998</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1112945</v>
+        <v>1109088</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3134726511414416</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.298061843231977</v>
+        <v>0.2963046138050197</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3294422041531345</v>
+        <v>0.3283002863059188</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1839</v>
@@ -1654,19 +1654,19 @@
         <v>1873914</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1800287</v>
+        <v>1804831</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1944266</v>
+        <v>1949123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.281626297462054</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2705609463719796</v>
+        <v>0.2712439490313696</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2921993106507784</v>
+        <v>0.2929291613244036</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2460713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2408469</v>
+        <v>2410358</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2509064</v>
+        <v>2511277</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7512179545714731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7352688085694074</v>
+        <v>0.7358455471636501</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7659788646673185</v>
+        <v>0.7666542993545989</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2260</v>
@@ -1704,19 +1704,19 @@
         <v>2319276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2265327</v>
+        <v>2269184</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2371338</v>
+        <v>2377274</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6865273488585584</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6705577958468655</v>
+        <v>0.6716997136940813</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.701938156768023</v>
+        <v>0.7036953861949803</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4670</v>
@@ -1725,19 +1725,19 @@
         <v>4779990</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4709638</v>
+        <v>4704781</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4853617</v>
+        <v>4849073</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7183737025379461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7078006893492216</v>
+        <v>0.7070708386755965</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7294390536280203</v>
+        <v>0.7287560509686304</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>155776</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>135041</v>
+        <v>133766</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>181127</v>
+        <v>179579</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2222341123479809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1926528982746673</v>
+        <v>0.1908332151576458</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2584005319862355</v>
+        <v>0.2561922099997947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -2090,19 +2090,19 @@
         <v>205730</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>182868</v>
+        <v>184743</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>231568</v>
+        <v>232728</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2951433035567151</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2623452618177053</v>
+        <v>0.265035921581198</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3322115661207402</v>
+        <v>0.3338758697862386</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>343</v>
@@ -2111,19 +2111,19 @@
         <v>361506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>329647</v>
+        <v>325905</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>396060</v>
+        <v>395513</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.258586860544794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2357976364892926</v>
+        <v>0.2331214053359236</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2833033654054961</v>
+        <v>0.2829121279894332</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>545180</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>519829</v>
+        <v>521377</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>565915</v>
+        <v>567190</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7777658876520191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7415994680137645</v>
+        <v>0.7438077900002051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8073471017253327</v>
+        <v>0.8091667848423536</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>458</v>
@@ -2161,19 +2161,19 @@
         <v>491320</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>465482</v>
+        <v>464322</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>514182</v>
+        <v>512307</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7048566964432849</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6677884338792601</v>
+        <v>0.6661241302137615</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7376547381822947</v>
+        <v>0.7349640784188021</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>979</v>
@@ -2182,19 +2182,19 @@
         <v>1036500</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1001946</v>
+        <v>1002493</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1068359</v>
+        <v>1072101</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7414131394552059</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7166966345945042</v>
+        <v>0.7170878720105668</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7642023635107075</v>
+        <v>0.7668785946640765</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>241165</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>213766</v>
+        <v>214043</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>269785</v>
+        <v>270723</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2369127766065366</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2099972054770935</v>
+        <v>0.2102692431712906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2650287718551856</v>
+        <v>0.2659496326415244</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>281</v>
@@ -2307,19 +2307,19 @@
         <v>311245</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>279663</v>
+        <v>280955</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>342175</v>
+        <v>343802</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3015405067073429</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2709430045318532</v>
+        <v>0.2721944588073487</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3315061102313734</v>
+        <v>0.3330823276192897</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>508</v>
@@ -2328,19 +2328,19 @@
         <v>552410</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>510528</v>
+        <v>513099</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>594312</v>
+        <v>593172</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.269451041207923</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2490219160016035</v>
+        <v>0.250276045315073</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2898897595321243</v>
+        <v>0.2893336616468802</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>776782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>748162</v>
+        <v>747224</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>804181</v>
+        <v>803904</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7630872233934634</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7349712281448147</v>
+        <v>0.7340503673584764</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7900027945229064</v>
+        <v>0.7897307568287094</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>659</v>
@@ -2378,19 +2378,19 @@
         <v>720939</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>690009</v>
+        <v>688382</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>752521</v>
+        <v>751229</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6984594932926571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6684938897686266</v>
+        <v>0.6669176723807102</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7290569954681468</v>
+        <v>0.7278055411926513</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1368</v>
@@ -2399,19 +2399,19 @@
         <v>1497721</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1455819</v>
+        <v>1456959</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1539603</v>
+        <v>1537032</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.730548958792077</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7101102404678757</v>
+        <v>0.7106663383531199</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7509780839983965</v>
+        <v>0.749723954684927</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>200655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>175369</v>
+        <v>176777</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>226004</v>
+        <v>231764</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2648475667100673</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2314732862605478</v>
+        <v>0.233330777876833</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2983065603019939</v>
+        <v>0.3059095933669287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>207</v>
@@ -2524,19 +2524,19 @@
         <v>227518</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>200431</v>
+        <v>202556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>254695</v>
+        <v>256741</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2927498041023806</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2578976612207862</v>
+        <v>0.2606310764623891</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3277190844845118</v>
+        <v>0.3303521885052876</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>389</v>
@@ -2545,19 +2545,19 @@
         <v>428172</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>391910</v>
+        <v>393794</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>464841</v>
+        <v>467329</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2789763987892331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2553499722674013</v>
+        <v>0.2565770369004475</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3028681652984629</v>
+        <v>0.3044890605998057</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>556968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>531619</v>
+        <v>525859</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>582254</v>
+        <v>580846</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7351524332899326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7016934396980061</v>
+        <v>0.6940904066330714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7685267137394522</v>
+        <v>0.766669222123167</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -2595,19 +2595,19 @@
         <v>549656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522479</v>
+        <v>520433</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>576743</v>
+        <v>574618</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7072501958976194</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6722809155154883</v>
+        <v>0.6696478114947128</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7421023387792139</v>
+        <v>0.739368923537611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1005</v>
@@ -2616,19 +2616,19 @@
         <v>1106625</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1069956</v>
+        <v>1067468</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1142887</v>
+        <v>1141003</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7210236012107669</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6971318347015369</v>
+        <v>0.6955109394001943</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7446500277325986</v>
+        <v>0.7434229630995526</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>247001</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>221173</v>
+        <v>218807</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>278678</v>
+        <v>273568</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.260621027219418</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.233369230211423</v>
+        <v>0.2308723209809547</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2940455177730227</v>
+        <v>0.2886531663237788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>316</v>
@@ -2741,19 +2741,19 @@
         <v>334364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>303379</v>
+        <v>303553</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>366548</v>
+        <v>365326</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3181582608859466</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2886742976089429</v>
+        <v>0.2888399078211145</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3487823352711274</v>
+        <v>0.3476189791589329</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>553</v>
@@ -2762,19 +2762,19 @@
         <v>581365</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>543448</v>
+        <v>538006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>624373</v>
+        <v>621609</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2908750510916517</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2719042018953446</v>
+        <v>0.2691810947941632</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3123931749110298</v>
+        <v>0.311010305715873</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>700738</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>669061</v>
+        <v>674171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>726566</v>
+        <v>728932</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.739378972780582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7059544822269772</v>
+        <v>0.7113468336762213</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7666307697885771</v>
+        <v>0.7691276790190459</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>686</v>
@@ -2812,19 +2812,19 @@
         <v>716573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>684389</v>
+        <v>685611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>747558</v>
+        <v>747384</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6818417391140534</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6512176647288725</v>
+        <v>0.6523810208410671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7113257023910572</v>
+        <v>0.7111600921788854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1359</v>
@@ -2833,19 +2833,19 @@
         <v>1417311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1374303</v>
+        <v>1377067</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1455228</v>
+        <v>1460670</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7091249489083483</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6876068250889702</v>
+        <v>0.6889896942841269</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7280957981046553</v>
+        <v>0.7308189052058366</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>844597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>793873</v>
+        <v>790325</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>896639</v>
+        <v>896071</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2466503963573812</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.231837521124972</v>
+        <v>0.2308013152687392</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2618486494557353</v>
+        <v>0.2616827032574002</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>996</v>
@@ -2958,19 +2958,19 @@
         <v>1078857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1020450</v>
+        <v>1020857</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1131990</v>
+        <v>1129145</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3032758273436963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2868571853908241</v>
+        <v>0.2869717096285596</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3182121181710253</v>
+        <v>0.3174122099047941</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1793</v>
@@ -2979,19 +2979,19 @@
         <v>1923453</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1854347</v>
+        <v>1845644</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2013411</v>
+        <v>2002922</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2755027917347082</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2656045505033621</v>
+        <v>0.2643578956759631</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2883878306476649</v>
+        <v>0.2868853344656943</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2579669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2527627</v>
+        <v>2528195</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2630393</v>
+        <v>2633941</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7533496036426188</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7381513505442646</v>
+        <v>0.7383172967425997</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.768162478875028</v>
+        <v>0.7691986847312605</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2301</v>
@@ -3029,19 +3029,19 @@
         <v>2478488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2425355</v>
+        <v>2428200</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2536895</v>
+        <v>2536488</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6967241726563036</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6817878818289745</v>
+        <v>0.6825877900952059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7131428146091759</v>
+        <v>0.7130282903714404</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4711</v>
@@ -3050,19 +3050,19 @@
         <v>5058157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4968199</v>
+        <v>4978688</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5127263</v>
+        <v>5135966</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7244972082652918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7116121693523353</v>
+        <v>0.7131146655343058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7343954494966379</v>
+        <v>0.735642104324037</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>192600</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>166468</v>
+        <v>169906</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>214446</v>
+        <v>216296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2854175553872992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2466928204463537</v>
+        <v>0.2517870961118122</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3177925735859472</v>
+        <v>0.3205332188953007</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>235</v>
@@ -3415,19 +3415,19 @@
         <v>232263</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>208736</v>
+        <v>209113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256158</v>
+        <v>259960</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3451991565672349</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3102316095170582</v>
+        <v>0.3107920319629059</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3807127119601634</v>
+        <v>0.3863621289534093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>418</v>
@@ -3436,19 +3436,19 @@
         <v>424863</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>389412</v>
+        <v>391194</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>458668</v>
+        <v>462612</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3152648607101525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2889589892794249</v>
+        <v>0.2902810036153642</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3403496297017914</v>
+        <v>0.3432757176016698</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>482200</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>460354</v>
+        <v>458504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>508332</v>
+        <v>504894</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7145824446127008</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6822074264140526</v>
+        <v>0.6794667811046993</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7533071795536462</v>
+        <v>0.7482129038881878</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>431</v>
@@ -3486,19 +3486,19 @@
         <v>440576</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>416681</v>
+        <v>412879</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>464103</v>
+        <v>463726</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6548008434327651</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6192872880398366</v>
+        <v>0.6136378710465903</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6897683904829417</v>
+        <v>0.6892079680370942</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>900</v>
@@ -3507,19 +3507,19 @@
         <v>922776</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>888971</v>
+        <v>885027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>958227</v>
+        <v>956445</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6847351392898475</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6596503702982089</v>
+        <v>0.6567242823983307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7110410107205754</v>
+        <v>0.7097189963846359</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>288930</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>259602</v>
+        <v>261157</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>317640</v>
+        <v>319448</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2825910350476887</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2539066652952433</v>
+        <v>0.2554270776896909</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3106717655504275</v>
+        <v>0.3124395507579817</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>352</v>
@@ -3632,19 +3632,19 @@
         <v>372549</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>340254</v>
+        <v>340336</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>405852</v>
+        <v>402767</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3572194378393734</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3262538942719329</v>
+        <v>0.3263322647223491</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3891524927999182</v>
+        <v>0.3861940259116631</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>616</v>
@@ -3653,19 +3653,19 @@
         <v>661479</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>618155</v>
+        <v>621466</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>705859</v>
+        <v>701993</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3202752812666035</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2992986990017142</v>
+        <v>0.3009021259083271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3417634540547952</v>
+        <v>0.3398916766564208</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>733501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>704791</v>
+        <v>702983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>762829</v>
+        <v>761274</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7174089649523113</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6893282344495727</v>
+        <v>0.6875604492420183</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7460933347047571</v>
+        <v>0.7445729223103088</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>625</v>
@@ -3703,19 +3703,19 @@
         <v>670364</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>637061</v>
+        <v>640146</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>702659</v>
+        <v>702577</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6427805621606266</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6108475072000817</v>
+        <v>0.6138059740883369</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.673746105728067</v>
+        <v>0.6736677352776507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1312</v>
@@ -3724,19 +3724,19 @@
         <v>1403865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1359485</v>
+        <v>1363351</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1447189</v>
+        <v>1443878</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6797247187333965</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6582365459452048</v>
+        <v>0.6601083233435793</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7007013009982859</v>
+        <v>0.6990978740916729</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>236347</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>211846</v>
+        <v>210437</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>261940</v>
+        <v>264083</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3111669458818191</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2789096091154178</v>
+        <v>0.2770542314677724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3448617042341332</v>
+        <v>0.3476823545049122</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>261</v>
@@ -3849,19 +3849,19 @@
         <v>274348</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>247398</v>
+        <v>246256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>302457</v>
+        <v>303169</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3494836111949993</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3151527435208655</v>
+        <v>0.3136971665315278</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3852899810061641</v>
+        <v>0.3861970385857391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>474</v>
@@ -3870,19 +3870,19 @@
         <v>510696</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>476656</v>
+        <v>474461</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>552214</v>
+        <v>547213</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3306410603432691</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3086027674118112</v>
+        <v>0.3071814670776649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3575213253399025</v>
+        <v>0.3542832547382821</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>523205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>497612</v>
+        <v>495469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>547706</v>
+        <v>549115</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6888330541181809</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6551382957658668</v>
+        <v>0.6523176454950879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7210903908845819</v>
+        <v>0.7229457685322276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>475</v>
@@ -3920,19 +3920,19 @@
         <v>510663</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>482554</v>
+        <v>481842</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>537613</v>
+        <v>538755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6505163888050007</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6147100189938358</v>
+        <v>0.6138029614142609</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6848472564791346</v>
+        <v>0.6863028334684722</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>958</v>
@@ -3941,19 +3941,19 @@
         <v>1033867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>992349</v>
+        <v>997350</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1067907</v>
+        <v>1070102</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.669358939656731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6424786746600974</v>
+        <v>0.6457167452617179</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6913972325881887</v>
+        <v>0.6928185329223349</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>268471</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>242240</v>
+        <v>242079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>296112</v>
+        <v>297320</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2863481363292295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2583710322124156</v>
+        <v>0.2581986669061165</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3158300446883546</v>
+        <v>0.3171186096856303</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>318</v>
@@ -4066,19 +4066,19 @@
         <v>345010</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>316465</v>
+        <v>314582</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>380048</v>
+        <v>377286</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3305391891066117</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3031918806533709</v>
+        <v>0.3013879440046794</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3641075576500971</v>
+        <v>0.3614611501961124</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>579</v>
@@ -4087,19 +4087,19 @@
         <v>613480</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>568918</v>
+        <v>569859</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>656975</v>
+        <v>656868</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3096281152739742</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.287137123131589</v>
+        <v>0.2876120969252913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3315803306233142</v>
+        <v>0.331526138613939</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>669096</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>641455</v>
+        <v>640247</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>695327</v>
+        <v>695488</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7136518636707705</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6841699553116454</v>
+        <v>0.6828813903143697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7416289677875844</v>
+        <v>0.7418013330938835</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>641</v>
@@ -4137,19 +4137,19 @@
         <v>698769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>663731</v>
+        <v>666493</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>727314</v>
+        <v>729197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6694608108933883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6358924423499022</v>
+        <v>0.6385388498038875</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6968081193466289</v>
+        <v>0.6986120559953206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1312</v>
@@ -4158,19 +4158,19 @@
         <v>1367866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1324371</v>
+        <v>1324478</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1412428</v>
+        <v>1411487</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6903718847260258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6684196693766858</v>
+        <v>0.6684738613860614</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7128628768684111</v>
+        <v>0.7123879030747088</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>986348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>927321</v>
+        <v>928370</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1036068</v>
+        <v>1042026</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2905851334820868</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2731954458661593</v>
+        <v>0.273504566048816</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3052331684306099</v>
+        <v>0.3069882479398203</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1166</v>
@@ -4283,19 +4283,19 @@
         <v>1224171</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1161785</v>
+        <v>1164912</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1280306</v>
+        <v>1279702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3453677779255916</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3277673772082697</v>
+        <v>0.3286494590928967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3612048436963857</v>
+        <v>0.3610344806913924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2087</v>
@@ -4304,19 +4304,19 @@
         <v>2210518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2143091</v>
+        <v>2135143</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2291761</v>
+        <v>2291162</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3185693382328801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3088520135854333</v>
+        <v>0.3077066819442409</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3302777088968096</v>
+        <v>0.3301913615362504</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2408002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2358282</v>
+        <v>2352324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2467029</v>
+        <v>2465980</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7094148665179132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6947668315693897</v>
+        <v>0.6930117520601796</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7268045541338406</v>
+        <v>0.726495433951184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2172</v>
@@ -4354,19 +4354,19 @@
         <v>2320371</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2264236</v>
+        <v>2264840</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2382757</v>
+        <v>2379630</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6546322220744083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6387951563036138</v>
+        <v>0.6389655193086079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6722326227917301</v>
+        <v>0.6713505409071034</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4482</v>
@@ -4375,19 +4375,19 @@
         <v>4728374</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4647131</v>
+        <v>4647730</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4795801</v>
+        <v>4803749</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6814306617671199</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6697222911031903</v>
+        <v>0.6698086384637496</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6911479864145665</v>
+        <v>0.6922933180557591</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>152490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128946</v>
+        <v>127426</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178907</v>
+        <v>176786</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2217947807596812</v>
+        <v>0.2217947807596811</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.187549648450175</v>
+        <v>0.1853394093388381</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2602167839806038</v>
+        <v>0.2571318959033783</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>313</v>
@@ -4740,19 +4740,19 @@
         <v>209704</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189422</v>
+        <v>189934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>233321</v>
+        <v>232811</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2876947816667814</v>
+        <v>0.2876947816667813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2598694469240196</v>
+        <v>0.260572112207998</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3200958870658665</v>
+        <v>0.3193959596267349</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>454</v>
@@ -4761,19 +4761,19 @@
         <v>362194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>330075</v>
+        <v>329210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>395329</v>
+        <v>394500</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2557074355218275</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2330311458562329</v>
+        <v>0.2324208856259074</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2791003725454013</v>
+        <v>0.2785152799459372</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>535039</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>508622</v>
+        <v>510743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>558583</v>
+        <v>560103</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7782052192403189</v>
+        <v>0.7782052192403187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7397832160193961</v>
+        <v>0.7428681040966219</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8124503515498251</v>
+        <v>0.8146605906611619</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>920</v>
@@ -4811,19 +4811,19 @@
         <v>519207</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>495590</v>
+        <v>496100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>539489</v>
+        <v>538977</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7123052183332188</v>
+        <v>0.7123052183332187</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6799041129341346</v>
+        <v>0.6806040403732652</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7401305530759806</v>
+        <v>0.7394278877920022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1505</v>
@@ -4832,19 +4832,19 @@
         <v>1054246</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1021111</v>
+        <v>1021940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1086365</v>
+        <v>1087230</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7442925644781727</v>
+        <v>0.7442925644781725</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7208996274545988</v>
+        <v>0.7214847200540629</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7669688541437673</v>
+        <v>0.7675791143740928</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>248542</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>210593</v>
+        <v>218111</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>277622</v>
+        <v>280423</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2386733032725487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2022310759935102</v>
+        <v>0.2094507559737632</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2665985688229887</v>
+        <v>0.2692887167726599</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>390</v>
@@ -4957,19 +4957,19 @@
         <v>289686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>265396</v>
+        <v>265056</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>317531</v>
+        <v>321454</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2715428704595576</v>
+        <v>0.2715428704595575</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.248773962699581</v>
+        <v>0.2484556566825165</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2976440773769014</v>
+        <v>0.3013218387423982</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>607</v>
@@ -4978,19 +4978,19 @@
         <v>538227</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>499085</v>
+        <v>500860</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>580813</v>
+        <v>584666</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.255306619163683</v>
+        <v>0.2553066191636831</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2367394877594151</v>
+        <v>0.2375813696586637</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.275506983625955</v>
+        <v>0.2773348180082161</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>792805</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>763725</v>
+        <v>760924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>830754</v>
+        <v>823236</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7613266967274513</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7334014311770115</v>
+        <v>0.7307112832273391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7977689240064899</v>
+        <v>0.7905492440262355</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1119</v>
@@ -5028,19 +5028,19 @@
         <v>777128</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>749283</v>
+        <v>745360</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>801418</v>
+        <v>801758</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7284571295404426</v>
+        <v>0.7284571295404424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7023559226230984</v>
+        <v>0.698678161257602</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.751226037300419</v>
+        <v>0.7515443433174837</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1859</v>
@@ -5049,19 +5049,19 @@
         <v>1569934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1527348</v>
+        <v>1523495</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1609076</v>
+        <v>1607301</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.744693380836317</v>
+        <v>0.7446933808363171</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7244930163740451</v>
+        <v>0.7226651819917841</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7632605122405849</v>
+        <v>0.7624186303413364</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>240379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214980</v>
+        <v>211289</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>274897</v>
+        <v>271697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2996691801015643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2680058183040789</v>
+        <v>0.2634040351614412</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3427016034742176</v>
+        <v>0.3387125834886157</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>354</v>
@@ -5174,19 +5174,19 @@
         <v>270402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>247080</v>
+        <v>247867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>294524</v>
+        <v>295240</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3364079213358619</v>
+        <v>0.336407921335862</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3073933098030134</v>
+        <v>0.3083726217657813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3664189492341152</v>
+        <v>0.3673094913807964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>553</v>
@@ -5195,19 +5195,19 @@
         <v>510781</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>471581</v>
+        <v>471770</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>548108</v>
+        <v>552227</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3180573553813978</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2936480061298551</v>
+        <v>0.2937657585450236</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3413005491072968</v>
+        <v>0.3438653518948857</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>561768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527250</v>
+        <v>530450</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>587167</v>
+        <v>590858</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7003308198984358</v>
+        <v>0.7003308198984356</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6572983965257825</v>
+        <v>0.6612874165113845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7319941816959211</v>
+        <v>0.7365959648385587</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -5245,19 +5245,19 @@
         <v>533389</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>509267</v>
+        <v>508551</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>556711</v>
+        <v>555924</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6635920786641379</v>
+        <v>0.6635920786641381</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6335810507658846</v>
+        <v>0.6326905086192035</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6926066901969865</v>
+        <v>0.6916273782342185</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1160</v>
@@ -5266,19 +5266,19 @@
         <v>1095158</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1057831</v>
+        <v>1053712</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1134358</v>
+        <v>1134169</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.681942644618602</v>
+        <v>0.6819426446186022</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6586994508927032</v>
+        <v>0.6561346481051143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7063519938701448</v>
+        <v>0.7062342414549765</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>281703</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>251055</v>
+        <v>254123</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>312095</v>
+        <v>315104</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2886802109468206</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2572731061430488</v>
+        <v>0.2604172901388709</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3198249902572353</v>
+        <v>0.3229084043376098</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>520</v>
@@ -5391,19 +5391,19 @@
         <v>382140</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>354392</v>
+        <v>355701</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>409438</v>
+        <v>412120</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3475411987335034</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.322306136156764</v>
+        <v>0.3234962232425347</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3723676044592279</v>
+        <v>0.3748070317145593</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>796</v>
@@ -5412,19 +5412,19 @@
         <v>663843</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>625791</v>
+        <v>624956</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>703109</v>
+        <v>705101</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3198651620166358</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3015304038850583</v>
+        <v>0.3011279926096054</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3387849961472024</v>
+        <v>0.3397448456753971</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>694128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>663736</v>
+        <v>660727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>724776</v>
+        <v>721708</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7113197890531794</v>
+        <v>0.7113197890531795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6801750097427647</v>
+        <v>0.6770915956623903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7427268938569511</v>
+        <v>0.7395827098611291</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1013</v>
@@ -5462,19 +5462,19 @@
         <v>717412</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>690114</v>
+        <v>687432</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>745160</v>
+        <v>743851</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6524588012664965</v>
+        <v>0.6524588012664967</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6276323955407721</v>
+        <v>0.6251929682854407</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.677693863843236</v>
+        <v>0.6765037767574652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1731</v>
@@ -5483,19 +5483,19 @@
         <v>1411540</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1372274</v>
+        <v>1370282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1449592</v>
+        <v>1450427</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6801348379833644</v>
+        <v>0.6801348379833642</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6612150038527981</v>
+        <v>0.660255154324603</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6984695961149419</v>
+        <v>0.6988720073903945</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>923114</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>867236</v>
+        <v>861390</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>986295</v>
+        <v>986038</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.263231350282072</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2472975019960179</v>
+        <v>0.2456303766533904</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2812477382837679</v>
+        <v>0.2811743732713519</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1577</v>
@@ -5608,19 +5608,19 @@
         <v>1151931</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1100951</v>
+        <v>1103916</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1206436</v>
+        <v>1203617</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3114111219769276</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.297629236745919</v>
+        <v>0.298430897341013</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3261460301444419</v>
+        <v>0.3253839335468214</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2410</v>
@@ -5629,19 +5629,19 @@
         <v>2075045</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2000495</v>
+        <v>2002166</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2158602</v>
+        <v>2160700</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2879638197225129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2776181553250661</v>
+        <v>0.2778499746953452</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2995594604931634</v>
+        <v>0.2998505155802768</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2583741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2520560</v>
+        <v>2520817</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2639619</v>
+        <v>2645465</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.736768649717928</v>
+        <v>0.7367686497179282</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7187522617162321</v>
+        <v>0.7188256267286482</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.752702498003982</v>
+        <v>0.7543696233466096</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3736</v>
@@ -5679,19 +5679,19 @@
         <v>2547137</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2492632</v>
+        <v>2495451</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2598117</v>
+        <v>2595152</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6885888780230724</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.673853969855558</v>
+        <v>0.6746160664531786</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7023707632540812</v>
+        <v>0.7015691026589871</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6255</v>
@@ -5700,19 +5700,19 @@
         <v>5130878</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5047321</v>
+        <v>5045223</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5205428</v>
+        <v>5203757</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7120361802774871</v>
+        <v>0.7120361802774872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7004405395068365</v>
+        <v>0.7001494844197231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7223818446749338</v>
+        <v>0.7221500253046547</v>
       </c>
     </row>
     <row r="18">
